--- a/doc/work_log.xlsx
+++ b/doc/work_log.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
   <si>
     <t>Who?</t>
   </si>
@@ -82,6 +82,15 @@
   </si>
   <si>
     <t>Added methodology</t>
+  </si>
+  <si>
+    <t>Added efforts and schedule</t>
+  </si>
+  <si>
+    <t>Sprint planning</t>
+  </si>
+  <si>
+    <t>Setup Taiga and planning for Sprint 1</t>
   </si>
 </sst>
 </file>
@@ -245,9 +254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -745,7 +752,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -788,7 +795,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="10">
-        <v>14.3</v>
+        <v>42443</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>8</v>
@@ -807,8 +814,8 @@
       <c r="C3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="8">
-        <v>14.3</v>
+      <c r="D3" s="10">
+        <v>42443</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>12</v>
@@ -824,8 +831,8 @@
       <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="8">
-        <v>17.3</v>
+      <c r="D4" s="10">
+        <v>42446</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>12</v>
@@ -841,8 +848,8 @@
       <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="8">
-        <v>17.3</v>
+      <c r="D5" s="10">
+        <v>42446</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>12</v>
@@ -858,8 +865,8 @@
       <c r="C6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="8">
-        <v>17.3</v>
+      <c r="D6" s="10">
+        <v>42446</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>12</v>
@@ -875,8 +882,8 @@
       <c r="C7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="8">
-        <v>19.3</v>
+      <c r="D7" s="10">
+        <v>42448</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>8</v>
@@ -892,26 +899,46 @@
       <c r="C8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="8">
-        <v>20.3</v>
+      <c r="D8" s="10">
+        <v>42449</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="6"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
+      <c r="A9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="10">
+        <v>42449</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="6"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
+      <c r="A10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="10">
+        <v>42449</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="6"/>

--- a/doc/work_log.xlsx
+++ b/doc/work_log.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
   <si>
     <t>Who?</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Setup Taiga and planning for Sprint 1</t>
+  </si>
+  <si>
+    <t>Worked on slides</t>
   </si>
 </sst>
 </file>
@@ -752,7 +755,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -941,11 +944,21 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="6"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="A11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="10">
+        <v>42449</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="6"/>

--- a/doc/work_log.xlsx
+++ b/doc/work_log.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-120" windowWidth="25600" windowHeight="15100" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
   <si>
     <t>Who?</t>
   </si>
@@ -755,7 +755,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -961,11 +961,21 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="6"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
+      <c r="A12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="10">
+        <v>42450</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="6"/>

--- a/doc/work_log.xlsx
+++ b/doc/work_log.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
   <si>
     <t>Who?</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Worked on slides</t>
+  </si>
+  <si>
+    <t>Learning to use Matlab for video processing</t>
   </si>
 </sst>
 </file>
@@ -755,7 +758,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -978,11 +981,21 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="6"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+      <c r="A13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="10">
+        <v>42450</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2"/>

--- a/doc/work_log.xlsx
+++ b/doc/work_log.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
   <si>
     <t>Who?</t>
   </si>
@@ -249,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -261,6 +261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -758,7 +759,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -998,11 +999,21 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="2"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="A14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="11">
+        <v>42450</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="6"/>

--- a/doc/work_log.xlsx
+++ b/doc/work_log.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21405"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="-120" windowWidth="25600" windowHeight="15100" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="29">
   <si>
     <t>Who?</t>
   </si>
@@ -97,6 +97,15 @@
   </si>
   <si>
     <t>Learning to use Matlab for video processing</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement function that extracts video-data </t>
+  </si>
+  <si>
+    <t>Implement loading of all videos contained in a folder and subfolders</t>
   </si>
 </sst>
 </file>
@@ -759,7 +768,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1016,18 +1025,38 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="A15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="10">
+        <v>42450</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="A16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="10">
+        <v>42450</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="6"/>

--- a/doc/work_log.xlsx
+++ b/doc/work_log.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="28">
   <si>
     <t>Who?</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>Learning to use Matlab for video processing</t>
+  </si>
+  <si>
+    <t>#7 Taiga</t>
+  </si>
+  <si>
+    <t>Function that save extracted data for later reuse</t>
   </si>
 </sst>
 </file>
@@ -759,7 +765,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1016,11 +1022,21 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="A15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="10">
+        <v>42451</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="6"/>
